--- a/DATA/SOURCE DATA/TEMPLATES/DwellingNeedTemplate.xlsx
+++ b/DATA/SOURCE DATA/TEMPLATES/DwellingNeedTemplate.xlsx
@@ -622,27 +622,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080EA0023AC52D249A473C39A992BCC94" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac2ed269086316716c06c6ea8a7b471b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f625e4ba-afd4-4fdb-b77b-271db42ec11b" xmlns:ns4="bb025ef0-b7bf-4bfe-b213-5ccb18524eb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6e87f020a22c4fa20a418ae2bec118e" ns3:_="" ns4:_="">
-    <xsd:import namespace="f625e4ba-afd4-4fdb-b77b-271db42ec11b"/>
-    <xsd:import namespace="bb025ef0-b7bf-4bfe-b213-5ccb18524eb7"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003BFB88B4067ECB40AA3F2E0EF672F6BB" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1e3ee718013e16ce541af019e407c596">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="208c7ed5-c894-4803-a7c7-831a8154db8b" xmlns:ns3="0f6d7760-f7d3-42f3-b5a6-16e4c400c838" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f5d8320d0ebd10b98e2500fa73c9336" ns2:_="" ns3:_="">
+    <xsd:import namespace="208c7ed5-c894-4803-a7c7-831a8154db8b"/>
+    <xsd:import namespace="0f6d7760-f7d3-42f3-b5a6-16e4c400c838"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns3:_activity" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:Hyperlink" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -650,7 +657,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f625e4ba-afd4-4fdb-b77b-271db42ec11b" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="208c7ed5-c894-4803-a7c7-831a8154db8b" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -663,41 +670,89 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_activity" ma:index="13" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="17" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="20be568d-003a-4216-9338-8351578ceeae" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="Hyperlink" ma:index="24" nillable="true" ma:displayName="Hyperlink" ma:format="Hyperlink" ma:internalName="Hyperlink">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:URL">
+            <xsd:sequence>
+              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
+              <xsd:element name="Description" type="xsd:string" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="18" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bb025ef0-b7bf-4bfe-b213-5ccb18524eb7" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0f6d7760-f7d3-42f3-b5a6-16e4c400c838" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -716,17 +771,23 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{a15288c8-3921-4e96-ad13-b7eca0d27ad2}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="0f6d7760-f7d3-42f3-b5a6-16e4c400c838">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -840,28 +901,20 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <_activity xmlns="f625e4ba-afd4-4fdb-b77b-271db42ec11b" xsi:nil="true"/>
+    <TaxCatchAll xmlns="0f6d7760-f7d3-42f3-b5a6-16e4c400c838" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="208c7ed5-c894-4803-a7c7-831a8154db8b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Hyperlink xmlns="208c7ed5-c894-4803-a7c7-831a8154db8b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Hyperlink>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{247B3D6F-8B3C-453F-A998-6DE6E9A7C921}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f625e4ba-afd4-4fdb-b77b-271db42ec11b"/>
-    <ds:schemaRef ds:uri="bb025ef0-b7bf-4bfe-b213-5ccb18524eb7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{840759AB-6AE9-4FEC-B33E-A81E53B352D4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
